--- a/Simulador IR para bolsas.xlsx
+++ b/Simulador IR para bolsas.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jrod\Desktop\Planilhas Excel\Cálculo do IR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87BE6D8-9494-4DF9-99F5-2A6AECC26BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103DB831-3F27-498B-A378-061127810F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A0241AA0-5440-4A50-8F42-87BD0DBFD361}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{A0241AA0-5440-4A50-8F42-87BD0DBFD361}"/>
   </bookViews>
   <sheets>
-    <sheet name="Simulador  IR 2024" sheetId="1" r:id="rId1"/>
-    <sheet name="Simulador IR 2025" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="Simulador  IR 2024" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Simulador IR 2025" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -201,7 +201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
   <si>
     <t>Tabela progressiva do IR - Ano 2024</t>
   </si>
@@ -287,7 +287,10 @@
     <t>Tem que coincidir com o valor calculado no contracheque</t>
   </si>
   <si>
-    <t>Revisão 6 - 12/05/2025</t>
+    <t>Revisão 7- 13/05/2025</t>
+  </si>
+  <si>
+    <t>Revisão 7 - 13/05/2025</t>
   </si>
 </sst>
 </file>
@@ -297,7 +300,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,6 +363,14 @@
     <font>
       <sz val="11"/>
       <color theme="6" tint="0.79998168889431442"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -503,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -554,9 +565,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -564,6 +572,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1300,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC2B736-74B3-41A3-949E-468D67D9855D}">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:I1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:D8 B4:B7 A5:A8 L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1324,13 +1344,13 @@
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
       <c r="D1" s="22"/>
-      <c r="E1" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="31"/>
+      <c r="E1" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
       <c r="J1" s="27" t="s">
         <v>23</v>
       </c>
@@ -1829,7 +1849,7 @@
       <c r="S22" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Q683z/JiU8kUkwp1aayxNBeA1mdae4k+ElnJwUDP6hz6hh4OZcLNcZ9jrM136xQfjJU2NbmZluzz0+cND0b01g==" saltValue="Bb3UT6zwsuVdspvO+fjadw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/phDGtGMUS+q3ZJURz0xP4HeMlhri5TWVj0fAdHv6ZW7MQ3EqR8GH4YV0AYRWXF/ir5kd225zkwfRJwMlcfqDg==" saltValue="30jz0Fpxd99E2he9iCzmng==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="9">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="I5:J5"/>
@@ -1852,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BEF21E-A034-4D63-8D26-9872FDFC0E0E}">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1876,24 +1896,30 @@
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
       <c r="D1" s="22"/>
-      <c r="E1" s="10"/>
-      <c r="J1" s="28" t="s">
+      <c r="E1" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E2" s="10"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2189,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="18" t="str">
-        <f>IF(AND(TRUNC(J13*0.11,2)+L6&lt;564.8,J13&lt;&gt;"",J13&gt;0),564.8,IF(AND(TRUNC(J13*0.11,2)+L6&gt;=564.8,J13&lt;&gt;"",J13&gt;0),TRUNC(J13*0.11,2)+L6,""))</f>
+        <f>IF(AND(TRUNC(J13*0.11,2)+L6&lt;607.2,J13&lt;&gt;"",J13&gt;0),607.2,IF(AND(TRUNC(J13*0.11,2)+L6&gt;=607.2,J13&lt;&gt;"",J13&gt;0),TRUNC(J13*0.11,2)+L6,""))</f>
         <v/>
       </c>
       <c r="O13" s="4" t="s">
@@ -2381,8 +2407,8 @@
       <c r="S22" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wuMcQhz+CmakAsP9puoenIVQQj+b9Llxd6JQe5UHBiO+Bdkir+3nRgpeZyuVMvO9qHoFH1oOWRTs8O9MG2xZrw==" saltValue="3SiRJdb8yy0b+ZxliByxsQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="8">
+  <sheetProtection algorithmName="SHA-512" hashValue="p+rNO5d7HVNPors6xL/sUgFU1GsKhOiuAGtwWvXi89mP/zO6OX3/vUCvPAg+eNEKXjiRl7mby6t9byeOygiJZA==" saltValue="jCCLtYz2RCEedivZGeDhjw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="9">
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="A1:D1"/>
@@ -2391,6 +2417,7 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="H11:R11"/>
+    <mergeCell ref="E1:I1"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.31496062992125984" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
